--- a/mfa/S_cerevisiae/run_files/Nlim__D_0_28/scGEM_Nlim__D_0_28_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Nlim__D_0_28/scGEM_Nlim__D_0_28_completeMFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433730 ala__L_c + 0.171361 arg__L_c + 0.205989 asn__L_c + 0.205989 asp__L_c + 0.006215 cys__L_c + 0.343610 gln__L_c + 0.343610 glu__L_c + 0.394663 gly_c + 0.085681 his__L_c + 0.261481 ile__L_c + 0.355597 leu__L_c + 0.291669 lys__L_c + 0.050609 met__L_c + 0.166922 phe__L_c + 0.187343 pro__L_c + 0.236620 ser__L_c + 0.247275 thr__L_c + 0.028856 trp__L_c + 0.087012 tyr__L_c + 0.325409 val__L_c + 0.538626 mannan_c + 0.835832 13BDglucan_c + 0.219956 16BDglucan_c + 0.019761 chtn_c + 0.402967 glycogen_c + 0.020199 tre_c + 0.002360 ergstest_c + 0.009219 ergst_c + 0.002396 pail_c + 0.008942 pc_c + 0.002403 pe_c + 0.002064 ps_c + 0.002378 tag_c + 0.001334 ipcbiom_c + 0.000513 ffabiom_c + 0.071219 ctp_c + 0.073291 gtp_c + 0.095437 utp_c + 0.002919 datp_c + 0.001970 dctp_c + 0.001970 dgtp_c + 0.002919 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 102.687787 atp_c + 93.755212 h2o_c --&gt; 4.429642 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 4.752659 ppi_c</t>
+    <t xml:space="preserve">0.433730 ala__L_c + 0.171361 arg__L_c + 0.205989 asn__L_c + 0.205989 asp__L_c + 0.006215 cys__L_c + 0.343610 gln__L_c + 0.343610 glu__L_c + 0.394663 gly_c + 0.085681 his__L_c + 0.261481 ile__L_c + 0.355597 leu__L_c + 0.291669 lys__L_c + 0.050609 met__L_c + 0.166922 phe__L_c + 0.187343 pro__L_c + 0.236620 ser__L_c + 0.247275 thr__L_c + 0.028856 trp__L_c + 0.087012 tyr__L_c + 0.325409 val__L_c + 0.538626 mannan_c + 0.835832 13BDglucan_c + 0.219956 16BDglucan_c + 0.019761 chtn_c + 0.402967 glycogen_c + 0.020199 tre_c + 0.002360 ergstest_c + 0.009219 ergst_c + 0.002396 pail_c + 0.008942 pc_c + 0.002403 pe_c + 0.002064 ps_c + 0.002378 tag_c + 0.001334 ipcbiom_c + 0.000513 ffabiom_c + 0.071219 ctp_c + 0.073291 gtp_c + 0.095437 utp_c + 0.002919 datp_c + 0.001970 dctp_c + 0.001970 dgtp_c + 0.002919 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 143.965875 atp_c + 135.033300 h2o_c --&gt; 4.429642 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 4.752659 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14888,10 +14888,10 @@
   </sheetPr>
   <dimension ref="A1:N594"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A594" activeCellId="0" sqref="A594"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34314,7 +34314,7 @@
   </sheetPr>
   <dimension ref="A1:L495"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A495" activeCellId="0" sqref="A495"/>
